--- a/medicine/Enfance/Jean-Christophe_Tixier/Jean-Christophe_Tixier.xlsx
+++ b/medicine/Enfance/Jean-Christophe_Tixier/Jean-Christophe_Tixier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Christophe Tixier, né le 3 mars 1967 à Pau, est un écrivain français, auteur de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après vingt ans passés dans l'enseignement (professeur d'économie en lycée) et la formation pour adulte, Jean-Christophe Tixier se lance dans l'écriture à 38 ans avec un récit familial La Rosalie[1].  Après la publication de celle-ci puis de plusieurs nouvelles, sort 2010 son premier roman, Dernière Station, grâce auquel il est lauréat du Grand prix VSD du polar 2010 - Prix des lecteurs. Il écrit également des scénarios pour la bande-dessinée, de la littérature d'enfance et de jeunesse et obtient de nombreux prix avec Dix minutes à perdre. Il est l'un des créateurs du salon du polar de Pau : un aller-retour dans le noir. Il est membre de La Charte et de la Maison des Écrivains et de la littérature. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après vingt ans passés dans l'enseignement (professeur d'économie en lycée) et la formation pour adulte, Jean-Christophe Tixier se lance dans l'écriture à 38 ans avec un récit familial La Rosalie.  Après la publication de celle-ci puis de plusieurs nouvelles, sort 2010 son premier roman, Dernière Station, grâce auquel il est lauréat du Grand prix VSD du polar 2010 - Prix des lecteurs. Il écrit également des scénarios pour la bande-dessinée, de la littérature d'enfance et de jeunesse et obtient de nombreux prix avec Dix minutes à perdre. Il est l'un des créateurs du salon du polar de Pau : un aller-retour dans le noir. Il est membre de La Charte et de la Maison des Écrivains et de la littérature. 
 </t>
         </is>
       </c>
@@ -544,27 +558,175 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Dernière Station, Éditions Les Nouveaux Auteurs (2010)  (ISBN 978-2-917144-65-7)
-Les Mal-aimés, Éditions Albin Michel (2019)  (ISBN 978-2-226-43672-6)[2] - Le livre de Poche (2020)  (ISBN 978-2-253-24162-1)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dernière Station, Éditions Les Nouveaux Auteurs (2010)  (ISBN 978-2-917144-65-7)
+Les Mal-aimés, Éditions Albin Michel (2019)  (ISBN 978-2-226-43672-6) - Le livre de Poche (2020)  (ISBN 978-2-253-24162-1)
 Effacer les hommes, Éditions Albin Michel (2021) ( (ISBN 978-2-226-45826-1)) Le livre de poche (2022)  (ISBN 978-2-253-24247-5)
-La Ligne, Éditions Albin Michel (2023) ( (ISBN 978-2-226-48142-9))
-Nouvelles
-Le Pacte, Noires de Pau (2004)
+La Ligne, Éditions Albin Michel (2023) ( (ISBN 978-2-226-48142-9))</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Christophe_Tixier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Christophe_Tixier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Pacte, Noires de Pau (2004)
 Tour de vices, Éditions Terre de Brume (2005)
 La Rosalie, Éditions in 8, coll. « La Porte à côté » no 36 (2007)  (ISBN 978-2-916159-42-3)
 Porte Sud, Éditions in 8, coll. « La Porte à côté » no 37 (2007)  (ISBN 978-2-916159-49-2)
-Copain comme cochon, Éditions in 8, coll. « La Porte à côté » (2017)  (ISBN 978-2-36224-074-4)
-Bandes dessinées
-L'A révolution, (scénario), avec Ohazar (dessin), Éditions Michel Lafon (2019)  (ISBN 978-2-7499-3640-6)[3]
-L'Hutopie, (scénario), avec Ohazar (dessin), Éditions Michel Lafon (2020) ( (ISBN 978-2-7499-4248-3))
-Littérature d'enfance et de jeunesse
-Série Guilty
-L'Affaire Diego Abrio, Rageot, hors collection (2021)  (ISBN 978-2-7002-7649-7),
+Copain comme cochon, Éditions in 8, coll. « La Porte à côté » (2017)  (ISBN 978-2-36224-074-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Christophe_Tixier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Christophe_Tixier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'A révolution, (scénario), avec Ohazar (dessin), Éditions Michel Lafon (2019)  (ISBN 978-2-7499-3640-6)
+L'Hutopie, (scénario), avec Ohazar (dessin), Éditions Michel Lafon (2020) ( (ISBN 978-2-7499-4248-3))</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Christophe_Tixier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Christophe_Tixier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Guilty</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'Affaire Diego Abrio, Rageot, hors collection (2021)  (ISBN 978-2-7002-7649-7),
 L'Affaire Patty Johnson, Rageot, hors collection (2021)  (ISBN 978-2-7002-7667-1),
-L'Affaire Helena Varance, Rageot, hors collection (2022)  (ISBN 978-2-7002-7909-2),
-Série 10 minutes
-Source : Syros.fr[4].
+L'Affaire Helena Varance, Rageot, hors collection (2022)  (ISBN 978-2-7002-7909-2),</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean-Christophe_Tixier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Christophe_Tixier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série 10 minutes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Source : Syros.fr.
 Dix minutes à perdre, Syros, coll. « Souris noire » (2015)  (ISBN 978-2-7485-1699-9), réédition  Les Incorruptibles (2016)  (ISBN 978-2-7511-0583-8)
 Dix minutes trop tard, Syros, coll. « Souris noire » (2017)  (ISBN 978-2-74-852328-7)
 Dix minutes de dingue, Syros, coll. « Souris noire » (2018)  (ISBN 978-2-7485-2475-8)
@@ -574,20 +736,134 @@
 Dix minutes non-stop, Syros, Syros, (2021)  (ISBN 978-2-74-853024-7)
 Dix minutes pour devenir a hero Syros, Syros, coll. « Tip tongue » (2022)  (ISBN 978-2-74-853058-2)
 Dix minutes non-stop, trois nouvelles histoires, Syros, Syros, (2022)  (ISBN 978-2-74-853096-4)
-Dix minutes cap ou pas cap, Syros, coll. « Souris noire » (2023)  (ISBN 978-2-74-853708-6)
-Série Bienvenue au 50 !
-Panique à tous les étages, Rageot (2017)  (ISBN 978-2-7002-5320-7)
+Dix minutes cap ou pas cap, Syros, coll. « Souris noire » (2023)  (ISBN 978-2-74-853708-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean-Christophe_Tixier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Christophe_Tixier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Bienvenue au 50 !</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Panique à tous les étages, Rageot (2017)  (ISBN 978-2-7002-5320-7)
 Le Tour du monde des voisins, Rageot (2017)  (ISBN 978-2-7002-5464-8)
 Buuut !, Rageot (2018)  (ISBN 978-2-7002-5752-6)
 Le Garçon venu de loin, Rageot (2018)  (ISBN 978-2-7002-5751-9)
 La Semaine du sourire, Rageot (2019)  (ISBN 978-2-7002-7292-5)
-Des papillons dans la tête, Rageot (2019)  (ISBN 978-2-7002-7293-2)
-Trilogie Les Initiés
-Tomas et le Réseau invisible, Rageot (2012)  (ISBN 978-2-7002-3758-0)
+Des papillons dans la tête, Rageot (2019)  (ISBN 978-2-7002-7293-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jean-Christophe_Tixier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Christophe_Tixier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Trilogie Les Initiés</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tomas et le Réseau invisible, Rageot (2012)  (ISBN 978-2-7002-3758-0)
 La Promesse de Lylas, Rageot (2012)  (ISBN 978-2-7002-4265-2)
-Fugitifs dans la nuit, Rageot (2013)  (ISBN 978-2-7002-4270-6)
-Autres romans jeunesse
-Parole de sorcier !, Rageot, coll. « Petit roman » (2010)  (ISBN 978-2-7002-3861-7)
+Fugitifs dans la nuit, Rageot (2013)  (ISBN 978-2-7002-4270-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jean-Christophe_Tixier</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Christophe_Tixier</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Autres romans jeunesse</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Parole de sorcier !, Rageot, coll. « Petit roman » (2010)  (ISBN 978-2-7002-3861-7)
 Sept Ans plus tard, Rageot, coll. « Heure noire » (2012)  (ISBN 978-2-7002-3908-9), réédition Rageot, coll. « Heure noire » (2016)  (ISBN 978-2-7002-5219-4)
 Le Plus Gourmand des éléphants, Rageot, coll. « Petit roman » (2013)  (ISBN 978-2-7002-4365-9)
 Foulée d'enfer, Rageot, coll. « Heure noire » (2014)  (ISBN 978-2-7002-3919-5)
@@ -597,11 +873,45 @@
 Deux Roues de travers, Syros, coll. « Souris noire » (2018)  (ISBN 978-2-7485-2186-3)
 Quand vient la vague , avec Manon Fargetton Rageot (2018)   (ISBN 978-2-7002-5638-3)
 Un dossard pour l'enfer, Rageot, coll. « Heure noire » (2018)  (ISBN 978-2-7002-5846-2)
-Lancer l'alerte, Rageot, hors collection (2019)  (ISBN 978-2-7002-7371-7)[5]
-En plein vol , avec Manon Fargetton Rageot (2020)   (ISBN 978-2-7002-7531-5)[6]
-La Nuit des requins, Rageot, coll. « Flash fiction » (2021) ( (ISBN 978-2-7002-5529-4))
-Pièces radiophoniques
-Par là où ils ont péché (janvier 2013)
+Lancer l'alerte, Rageot, hors collection (2019)  (ISBN 978-2-7002-7371-7)
+En plein vol , avec Manon Fargetton Rageot (2020)   (ISBN 978-2-7002-7531-5)
+La Nuit des requins, Rageot, coll. « Flash fiction » (2021) ( (ISBN 978-2-7002-5529-4))</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jean-Christophe_Tixier</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Christophe_Tixier</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pièces radiophoniques</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Par là où ils ont péché (janvier 2013)
 Sous le sable (mai 2013)
 Inventaires (novembre 2013)
 Plus simple que ça... on meurt ! (janvier 2014)
@@ -610,35 +920,37 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jean-Christophe_Tixier</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jean-Christophe_Tixier</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jean-Christophe_Tixier</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Christophe_Tixier</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Grand prix VSD du polar 2010 - Prix des lecteurs pour Dernière Station[7]
-Prix Transfuge 2019 du meilleur polar français pour Les mal-aimés[8]
-Dix minutes à perdre a reçu 21 prix[9] :
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Grand prix VSD du polar 2010 - Prix des lecteurs pour Dernière Station
+Prix Transfuge 2019 du meilleur polar français pour Les mal-aimés
+Dix minutes à perdre a reçu 21 prix :
 Prix Goupil 2015
 Prix Lire &amp; Choisir 2016
 Prix Quais du Polar/Ville de Lyon 2016
